--- a/Equipe5/Lista 3/Times.xlsx
+++ b/Equipe5/Lista 3/Times.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>0.462000</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>0.029000</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,9 +477,10 @@
     <col min="2" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -510,8 +514,11 @@
       <c r="K1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -545,8 +552,12 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="e">
+        <f>AVERAGE(B2,C2,D2,E2,F2,G2,H2,I2,J2,K2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -580,8 +591,12 @@
       <c r="K3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="e">
+        <f t="shared" ref="L3:L9" si="0">AVERAGE(B3,C3,D3,E3,F3,G3,H3,I3,J3,K3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -615,8 +630,12 @@
       <c r="K4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -650,8 +669,12 @@
       <c r="K5" s="3">
         <v>40500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>40340000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -685,8 +708,12 @@
       <c r="K6" s="3">
         <v>34432000</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>34988600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -720,8 +747,12 @@
       <c r="K7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -755,8 +786,12 @@
       <c r="K8" s="3">
         <v>423600000</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>413860700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -785,19 +820,23 @@
         <v>372529000</v>
       </c>
       <c r="J9" s="3">
-        <v>3714710000</v>
+        <v>371410000</v>
       </c>
       <c r="K9" s="3">
         <v>381300000</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>383490600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
     </row>
   </sheetData>

--- a/Equipe5/Lista 3/Times.xlsx
+++ b/Equipe5/Lista 3/Times.xlsx
@@ -144,6 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +472,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,38 +643,38 @@
         <v>13</v>
       </c>
       <c r="B5" s="3">
-        <v>40317000</v>
+        <v>40.317</v>
       </c>
       <c r="C5" s="3">
-        <v>41135000</v>
+        <v>41.134999999999998</v>
       </c>
       <c r="D5" s="3">
-        <v>39193000</v>
+        <v>39.192999999999998</v>
       </c>
       <c r="E5" s="3">
-        <v>38925000</v>
+        <v>38.924999999999997</v>
       </c>
       <c r="F5" s="3">
-        <v>39361000</v>
+        <v>39.360999999999997</v>
       </c>
       <c r="G5" s="3">
-        <v>42430000</v>
+        <v>42.43</v>
       </c>
       <c r="H5" s="3">
-        <v>40627000</v>
+        <v>40.627000000000002</v>
       </c>
       <c r="I5" s="3">
-        <v>40859000</v>
+        <v>40.859000000000002</v>
       </c>
       <c r="J5" s="3">
-        <v>40053000</v>
+        <v>40.052999999999997</v>
       </c>
       <c r="K5" s="3">
-        <v>40500000</v>
+        <v>40.5</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>40340000</v>
+        <v>40.339999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -679,38 +682,38 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>35520000</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="C6" s="3">
-        <v>34881000</v>
+        <v>34.881</v>
       </c>
       <c r="D6" s="3">
-        <v>35406000</v>
+        <v>35.405999999999999</v>
       </c>
       <c r="E6" s="3">
-        <v>34565000</v>
+        <v>34.564999999999998</v>
       </c>
       <c r="F6" s="3">
-        <v>34912000</v>
+        <v>34.911999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>34684000</v>
+        <v>34.683999999999997</v>
       </c>
       <c r="H6" s="3">
-        <v>35110000</v>
+        <v>35.11</v>
       </c>
       <c r="I6" s="3">
-        <v>35234000</v>
+        <v>35.234000000000002</v>
       </c>
       <c r="J6" s="3">
-        <v>35142000</v>
+        <v>35.142000000000003</v>
       </c>
       <c r="K6" s="3">
-        <v>34432000</v>
+        <v>34.432000000000002</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>34988600</v>
+        <v>34.988600000000005</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -757,38 +760,38 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>420017000</v>
+        <v>420.017</v>
       </c>
       <c r="C8" s="3">
-        <v>411235000</v>
+        <v>411.23500000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>393003000</v>
+        <v>393.00299999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>392205000</v>
+        <v>392.20499999999998</v>
       </c>
       <c r="F8" s="3">
-        <v>414601000</v>
+        <v>414.601</v>
       </c>
       <c r="G8" s="3">
-        <v>414500000</v>
+        <v>414.5</v>
       </c>
       <c r="H8" s="3">
-        <v>436407000</v>
+        <v>436.40699999999998</v>
       </c>
       <c r="I8" s="3">
-        <v>422509000</v>
+        <v>422.50900000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>410530000</v>
+        <v>410.53</v>
       </c>
       <c r="K8" s="3">
-        <v>423600000</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>413860700</v>
+        <v>423.6</v>
+      </c>
+      <c r="L8" t="e">
+        <f>AVERAGE(B7,C7,D7,E7,F7,G7,H7,I7,J7,K7)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -796,38 +799,38 @@
         <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>395000000</v>
+        <v>395</v>
       </c>
       <c r="C9" s="3">
-        <v>394257000</v>
+        <v>394.25700000000001</v>
       </c>
       <c r="D9" s="3">
-        <v>392433000</v>
+        <v>392.43299999999999</v>
       </c>
       <c r="E9" s="3">
-        <v>374155000</v>
+        <v>374.15499999999997</v>
       </c>
       <c r="F9" s="3">
-        <v>378201000</v>
+        <v>378.20100000000002</v>
       </c>
       <c r="G9" s="3">
-        <v>381300000</v>
+        <v>381.3</v>
       </c>
       <c r="H9" s="3">
-        <v>394321000</v>
+        <v>394.32100000000003</v>
       </c>
       <c r="I9" s="3">
-        <v>372529000</v>
+        <v>372.529</v>
       </c>
       <c r="J9" s="3">
-        <v>371410000</v>
+        <v>371.41</v>
       </c>
       <c r="K9" s="3">
-        <v>381300000</v>
+        <v>381.3</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>383490600</v>
+        <v>383.49059999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
